--- a/Template/src/reports/TEST LINK FORMATS/TEST LINK FORMATS [TEMP].xlsx
+++ b/Template/src/reports/TEST LINK FORMATS/TEST LINK FORMATS [TEMP].xlsx
@@ -22,7 +22,7 @@
     <t>Start</t>
   </si>
   <si>
-    <t>2021-03-18 17:26:55</t>
+    <t>2021-03-19 00:54:16</t>
   </si>
   <si>
     <t>#</t>
